--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683425.8412550897</v>
+        <v>704322.5779357563</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982519</v>
+        <v>284149.5140982522</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.42068238</v>
+        <v>8518081.420682378</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.863583504628</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5.07562316487618</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>104.2134976797693</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.4669505662694</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -893,76 +893,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F5" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>9.912609003890163</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>154.9613742010232</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>37.07441191321006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1269,7 +1269,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>28.87913959011919</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325226</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>128.4678304511571</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>229.5889480231533</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>105.6875942894366</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755627</v>
+        <v>34.45403149117948</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1783,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>308.1699826279565</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>105.2581407114543</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>22.35153719005437</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>5.363399827271436</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.37682225755638</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.1332020905462</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>327.1485339723824</v>
       </c>
       <c r="G23" t="n">
-        <v>413.1818335825644</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>22.28704139029322</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>130.7784572765348</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2643,7 +2643,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933841</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>22.99537910748715</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>38.39834678541126</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>123.0607915108183</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>6.330885581372763</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210773</v>
+        <v>223.1498336210767</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,22 +3029,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>24.25641376481886</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>184.5808806410313</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>9.764863467406823</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>292.1380595743621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>29.54589321415712</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.4590629217823</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>355.1993340151795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3630,7 +3630,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>6.390346842434924</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>356.681260877744</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>184.287718198781</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3867,7 +3867,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>7.270565549321646</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>155.2114886365811</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>242.2866730943828</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.0042946710584</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>818.7624959030029</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="C2" t="n">
-        <v>818.7624959030029</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="D2" t="n">
-        <v>552.8614515073797</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="E2" t="n">
-        <v>286.9604071117565</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613335</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573684</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>1047.841243720933</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>1047.841243720933</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806668</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806668</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806668</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806668</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806668</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806668</v>
+        <v>291.098892013627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.05936271613335</v>
+        <v>214.90364308791</v>
       </c>
       <c r="C3" t="n">
-        <v>21.05936271613335</v>
+        <v>214.90364308791</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613335</v>
+        <v>214.90364308791</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613335</v>
+        <v>214.90364308791</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613335</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>30.73231659501241</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>271.335844489875</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M3" t="n">
-        <v>531.9454581020252</v>
+        <v>264.2940185443781</v>
       </c>
       <c r="N3" t="n">
-        <v>792.5550717141754</v>
+        <v>524.903632156528</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806668</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>880.4795283993085</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T3" t="n">
-        <v>678.4944708143844</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>450.2741420565892</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V3" t="n">
-        <v>450.2741420565892</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W3" t="n">
-        <v>436.6711616866201</v>
+        <v>798.7307790784648</v>
       </c>
       <c r="X3" t="n">
-        <v>228.8196614810873</v>
+        <v>590.879278872932</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.05936271613335</v>
+        <v>383.1189801079781</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706538</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>301.0384945329112</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C5" t="n">
-        <v>301.0384945329112</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="D5" t="n">
-        <v>301.0384945329112</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="E5" t="n">
-        <v>301.0384945329112</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="F5" t="n">
         <v>22.09252109618844</v>
@@ -4568,19 +4568,19 @@
         <v>22.09252109618846</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4601,16 +4601,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W5" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X5" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.9844679696339</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C6" t="n">
         <v>22.09252109618844</v>
@@ -4656,13 +4656,13 @@
         <v>541.6429362542214</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P6" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
@@ -4674,22 +4674,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>1094.613318441856</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U6" t="n">
-        <v>866.3947060760038</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V6" t="n">
-        <v>866.3947060760038</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W6" t="n">
-        <v>612.1573493478022</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X6" t="n">
-        <v>404.3058491422694</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y6" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="7">
@@ -4753,16 +4753,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
         <v>22.09252109618844</v>
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1135.888471323017</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="C8" t="n">
-        <v>766.9259543826058</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>766.9259543826058</v>
+        <v>1520.080031287787</v>
       </c>
       <c r="E8" t="n">
-        <v>381.1377017843616</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2209.859345912514</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>1878.796458568943</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1526.027803298829</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1526.027803298829</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y8" t="n">
-        <v>1135.888471323017</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="9">
@@ -4872,40 +4872,40 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073964</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4954,58 +4954,58 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>879.8879872790437</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>494.0997346807995</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>83.11382989119193</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5054,37 +5054,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1624.753525949916</v>
       </c>
     </row>
     <row r="12">
@@ -5109,40 +5109,40 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073964</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T13" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U13" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V13" t="n">
-        <v>365.6939024587809</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>365.6939024587809</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>571.6840323568777</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064341</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.175505447095</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>882.8926947117852</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2535.799047294721</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487028</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.775345511217</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5595,40 +5595,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641996</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5677,40 +5677,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587807</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587807</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>76.52029211334866</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>76.52029211334866</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>76.52029211334866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>857.6950425204218</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C20" t="n">
-        <v>857.6950425204218</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D20" t="n">
-        <v>857.6950425204218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5750,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5783,19 +5783,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2691.73151543512</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.668628091549</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W20" t="n">
-        <v>2007.899972821435</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X20" t="n">
-        <v>1634.434214560355</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y20" t="n">
-        <v>1244.294882584544</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5829,49 +5829,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2678.586644293418</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R22" t="n">
-        <v>2678.586644293418</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S22" t="n">
-        <v>2678.586644293418</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T22" t="n">
-        <v>2678.586644293418</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U22" t="n">
-        <v>2678.586644293418</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V22" t="n">
-        <v>2678.586644293418</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2678.586644293418</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1584.314837422907</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C23" t="n">
-        <v>1215.352320482495</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="D23" t="n">
-        <v>857.0866218757444</v>
+        <v>770.1842990371767</v>
       </c>
       <c r="E23" t="n">
-        <v>471.2983692775002</v>
+        <v>384.3960464389325</v>
       </c>
       <c r="F23" t="n">
-        <v>471.2983692775002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2289.351746278602</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1915.885988017522</v>
       </c>
       <c r="Y23" t="n">
-        <v>1970.914677487028</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6066,43 +6066,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064344</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064344</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064344</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="E25" t="n">
-        <v>663.910013048764</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="F25" t="n">
-        <v>517.0200655508536</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="G25" t="n">
-        <v>348.0202652891861</v>
+        <v>76.45514484086266</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6181,16 +6181,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064344</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6242,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2565.049639223743</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.287853861835</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1980.224966518264</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1627.45631124815</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1237.316979272338</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6300,46 +6300,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6348,7 +6348,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="C28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="D28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="E28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="F28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="G28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="H28" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I28" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6406,28 +6406,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587812</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>138.3857151273829</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U28" t="n">
-        <v>99.5995062532301</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.5995062532301</v>
+        <v>259.1560728187103</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.351822121131</v>
+        <v>1392.984777118937</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.38930518072</v>
+        <v>1392.984777118937</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1392.984777118937</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>1007.196524520692</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>596.210619731085</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>178.2468116292719</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036446</v>
@@ -6461,19 +6461,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6491,22 +6491,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.725567628137</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>2635.725567628137</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W29" t="n">
-        <v>2282.956912358023</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X29" t="n">
-        <v>1909.491154096943</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y29" t="n">
-        <v>1519.351822121131</v>
+        <v>1779.584617183059</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036446</v>
@@ -6543,22 +6543,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>2471.745218673701</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1293.182375355301</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C32" t="n">
-        <v>1293.182375355301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D32" t="n">
-        <v>1293.182375355301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>907.3941227570567</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>496.4082179674492</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>78.44440986563603</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6716,34 +6716,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.387305656314</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.387305656314</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X32" t="n">
-        <v>2069.921547395234</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1679.782215419423</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.80648027229054</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>63.80648027229054</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>63.80648027229054</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>63.80648027229054</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>63.80648027229054</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005476</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>473.4444960005476</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D35" t="n">
-        <v>1177.981643776797</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2436.098577282929</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2182.33679192102</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1851.27390457745</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1498.505249307336</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1498.505249307336</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6990,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2469.159540120205</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C37" t="n">
-        <v>2469.159540120205</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D37" t="n">
-        <v>2469.159540120205</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E37" t="n">
-        <v>2469.159540120205</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F37" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2300.159739858537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>2469.159540120205</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>2469.159540120205</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>798.5184404945476</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>412.7301878963033</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7172,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7272,10 +7272,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073964</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2367.353967622167</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C40" t="n">
-        <v>2198.41778469426</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D40" t="n">
-        <v>2198.41778469426</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E40" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2191.96288889382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V40" t="n">
-        <v>2549.002432452407</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W40" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X40" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y40" t="n">
-        <v>2549.002432452407</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7433,28 +7433,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2279.793703561087</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2279.793703561087</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1927.025048290972</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1553.559290029893</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7488,25 +7488,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7515,16 +7515,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>61.28698742573985</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7597,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>571.3497027553424</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1485.892406545185</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>1485.892406545185</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1127.626707938434</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
         <v>882.8926947117852</v>
@@ -7646,7 +7646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733123</v>
@@ -7676,22 +7676,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545185</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545185</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245972</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245972</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245972</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265798</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.0584309830497</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114201</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>139.6188569073249</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093849</v>
+        <v>240.6662713124298</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,16 +8304,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>132.647065034147</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10191,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.8702581588526</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.6883361205949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.2102214038314</v>
@@ -22568,7 +22568,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>138.981979599594</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>40.85571471361459</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -22644,7 +22644,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703753</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>238.2280325946502</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>7.411751991652892</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.114410708933576</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
-        <v>130.719532039356</v>
+        <v>163.6373884726768</v>
       </c>
       <c r="G5" t="n">
         <v>415.1619485273195</v>
@@ -22841,16 +22841,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>84.51360120110027</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22914,13 +22914,13 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>189.9484919682817</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -23005,7 +23005,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23024,22 +23024,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>226.9689958712386</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23075,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>214.1497555950792</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.9050304306758</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,13 +23431,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>27.70305839063806</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>22.54869530067472</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>46.24372195542468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890129</v>
+        <v>111.9799311553897</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23674,7 +23674,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.10290914305108</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>69.15757209751717</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23792,7 +23792,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>203.3581181989828</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,19 +23969,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481174</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,7 +24023,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>245.8607676810179</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.74592769735794</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859472725</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,16 +24209,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>79.72751176932906</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6023364382306227</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.8838474515019</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853699</v>
@@ -24421,13 +24421,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24494,19 +24494,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>85.669863081123</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>133.175509734308</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>247.8835274565665</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>200.8619812535388</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24731,19 +24731,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>244.8932819269165</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>63.3731647155137</v>
+        <v>63.37316471551432</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,22 +24917,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>299.6663589995383</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24968,16 +24968,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662654</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>157.5449387916441</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25123,22 +25123,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>89.79231049789968</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>186.9024271435007</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>16.71182592001284</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,22 +25388,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>58.5848360056155</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>140.0436158041342</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25594,7 +25594,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>57.10290914305097</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>66.93644930950828</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,10 +25789,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>139.1633970972475</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,7 +25837,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>69.82361682150315</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>139.643696977879</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.8276855108789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,25 +26071,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182223</v>
+        <v>494243.3891182222</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264979</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="C2" t="n">
-        <v>159463.6497950859</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="D2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="F2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="F2" t="n">
-        <v>260237.3490141815</v>
-      </c>
       <c r="G2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438905</v>
+        <v>15106.68758438935</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536879</v>
+        <v>417183.6221536882</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124994</v>
+        <v>68875.69873124988</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475253</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
         <v>100763.3119392804</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36111.51865793981</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="C4" t="n">
-        <v>36172.68381749537</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026681</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
         <v>51181.37951678014</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26491,13 +26491,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40634.24541322512</v>
+        <v>-38242.1352549681</v>
       </c>
       <c r="C6" t="n">
-        <v>57002.89887642128</v>
+        <v>59398.42223248578</v>
       </c>
       <c r="D6" t="n">
-        <v>-278278.4190066249</v>
+        <v>-275750.0978431829</v>
       </c>
       <c r="E6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="F6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="G6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="H6" t="n">
-        <v>172532.8031470632</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="I6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="J6" t="n">
-        <v>103657.1044158133</v>
+        <v>106185.4255792554</v>
       </c>
       <c r="K6" t="n">
-        <v>169209.0293225878</v>
+        <v>171737.3504860301</v>
       </c>
       <c r="L6" t="n">
-        <v>71769.49120778279</v>
+        <v>74297.81237122494</v>
       </c>
       <c r="M6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="N6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="O6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105055</v>
       </c>
       <c r="P6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105054</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170867</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26811,13 +26811,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233572</v>
+        <v>12.00787803233596</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979615</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9144797506886</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068871</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
         <v>398.1307590522001</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.9144797506886</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590522002</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,43 +31756,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31932,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.770660483716219</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516669</v>
+        <v>111.0745309547117</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>20.89710520914779</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624597</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
         <v>148.370846145888</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36689,7 +36689,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492237</v>
@@ -37628,13 +37628,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
@@ -37786,10 +37786,10 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37865,7 +37865,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338903</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435302</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,7 +38105,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704322.5779357563</v>
+        <v>742888.175186464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982522</v>
+        <v>335414.3901624712</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043315</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.420682378</v>
+        <v>8194462.196483677</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.07562316487618</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>104.2134976797693</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44.9899397890165</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>276.1565137023555</v>
+        <v>196.3193098422672</v>
       </c>
       <c r="F5" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>127.0298261702744</v>
       </c>
       <c r="U6" t="n">
-        <v>175.7569470849743</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>22.69098551756509</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>154.9613742010232</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>87.80598074015786</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494254</v>
+        <v>19.19733857974308</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>28.87913959011919</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>194.8773026050923</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.5889480231533</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>217.197182251363</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>105.6875942894366</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.45403149117948</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1807,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>105.2581407114543</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2081,16 +2083,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>142.9777266703274</v>
       </c>
       <c r="U20" t="n">
-        <v>81.12200652863734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>205.1332020905462</v>
+        <v>192.3314971819016</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>327.1485339723824</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>312.2258396319372</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.28704139029322</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.769908071583895</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>130.7784572765348</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>1.595867353580738</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2725,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>22.99537910748715</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>125.3787979092683</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H29" t="n">
-        <v>123.0607915108183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>223.1498336210767</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>184.5808806410313</v>
+        <v>48.4326051737889</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3120,7 +3122,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.1271626621467</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>29.54589321415712</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>232.3056710074059</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>355.1993340151795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>225.4603876057575</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3630,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>94.63926978364054</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>356.681260877744</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>262.98102090663</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3867,7 +3869,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3901,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>7.270565549321646</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017899</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.19784761800419</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>25.19784761800419</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>1047.841243720933</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>1047.841243720933</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>822.9009808048727</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>822.9009808048727</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>822.9009808048727</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>822.9009808048727</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>556.9999364092498</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>291.098892013627</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.90364308791</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="C3" t="n">
-        <v>214.90364308791</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="D3" t="n">
-        <v>214.90364308791</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="E3" t="n">
-        <v>214.90364308791</v>
+        <v>65.47965938826763</v>
       </c>
       <c r="F3" t="n">
-        <v>109.6374838154158</v>
+        <v>65.47965938826763</v>
       </c>
       <c r="G3" t="n">
-        <v>109.6374838154158</v>
+        <v>65.47965938826763</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>154.3302328992135</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>264.2940185443781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>524.903632156528</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>785.3166962490201</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>798.7307790784648</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>590.879278872932</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y3" t="n">
-        <v>383.1189801079781</v>
+        <v>224.7171143937231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>825.6800813726992</v>
+        <v>228.6711534226096</v>
       </c>
       <c r="C5" t="n">
-        <v>546.7341079359765</v>
+        <v>228.6711534226096</v>
       </c>
       <c r="D5" t="n">
-        <v>546.7341079359765</v>
+        <v>228.6711534226096</v>
       </c>
       <c r="E5" t="n">
-        <v>267.7881344992537</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="F5" t="n">
-        <v>22.09252109618844</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618844</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618844</v>
+        <v>30.36882024860222</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="V5" t="n">
-        <v>1104.626054809422</v>
+        <v>722.7372794047154</v>
       </c>
       <c r="W5" t="n">
-        <v>1104.626054809422</v>
+        <v>722.7372794047154</v>
       </c>
       <c r="X5" t="n">
-        <v>1104.626054809422</v>
+        <v>475.7042164136625</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.6800813726992</v>
+        <v>228.6711534226096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.09252109618844</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="C6" t="n">
-        <v>22.09252109618844</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="D6" t="n">
-        <v>22.09252109618844</v>
+        <v>178.8024735943469</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L6" t="n">
-        <v>268.2479876888895</v>
+        <v>251.2267644261524</v>
       </c>
       <c r="M6" t="n">
-        <v>541.6429362542214</v>
+        <v>493.3438694636834</v>
       </c>
       <c r="N6" t="n">
-        <v>815.0378848195533</v>
+        <v>735.4609745012144</v>
       </c>
       <c r="O6" t="n">
-        <v>1081.534698402837</v>
+        <v>977.5780795387454</v>
       </c>
       <c r="P6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>849.9379737170196</v>
       </c>
       <c r="U6" t="n">
-        <v>927.0937850266196</v>
+        <v>621.7148805910435</v>
       </c>
       <c r="V6" t="n">
-        <v>691.9416767948769</v>
+        <v>386.5627723593008</v>
       </c>
       <c r="W6" t="n">
-        <v>437.7043200666752</v>
+        <v>386.5627723593008</v>
       </c>
       <c r="X6" t="n">
-        <v>229.8528198611424</v>
+        <v>386.5627723593008</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.09252109618844</v>
+        <v>178.8024735943469</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="G7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="H7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="I7" t="n">
-        <v>22.09252109618844</v>
+        <v>135.111059141955</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618844</v>
+        <v>41.28197559507151</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2247.308246834949</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.345729894537</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="D8" t="n">
-        <v>1520.080031287787</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="Y8" t="n">
-        <v>2247.308246834949</v>
+        <v>818.7624959030018</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>785.3166962490201</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1033.576884716017</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>779.3395279878151</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>571.4880277822823</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>363.7277290173284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.153685885794</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C11" t="n">
-        <v>1238.153685885794</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D11" t="n">
-        <v>879.8879872790437</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E11" t="n">
-        <v>494.0997346807995</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F11" t="n">
-        <v>83.11382989119193</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036446</v>
@@ -5042,10 +5044,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5054,7 +5056,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
         <v>2544.691559791253</v>
@@ -5066,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.892857925728</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.753525949916</v>
+        <v>739.4034003911122</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036446</v>
@@ -5121,22 +5123,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5163,7 +5165,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>125.4609311463253</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036446</v>
@@ -5206,7 +5208,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
         <v>529.6040388502502</v>
@@ -5215,34 +5217,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1315.737983561872</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C14" t="n">
-        <v>1315.737983561872</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D14" t="n">
-        <v>957.4722849551219</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E14" t="n">
-        <v>571.6840323568777</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F14" t="n">
-        <v>160.6981275672701</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>160.6981275672701</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>160.6981275672701</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5294,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2465.942913862886</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>2465.942913862886</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X14" t="n">
-        <v>2092.477155601806</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y14" t="n">
-        <v>1702.337823625994</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5379,19 +5381,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600564</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600564</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5540,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.799047294721</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5592,43 +5594,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5677,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
         <v>53.94298182036445</v>
@@ -5753,10 +5755,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5780,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2552.727144886579</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2298.96535952467</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>1967.902472181099</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>1615.133816910985</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>1241.668058649906</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>851.5287266740938</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D22" t="n">
         <v>53.94298182036445</v>
@@ -5914,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>343.360151857325</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="T22" t="n">
-        <v>343.360151857325</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1139.146815977588</v>
+        <v>994.3352828674997</v>
       </c>
       <c r="C23" t="n">
-        <v>770.1842990371767</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D23" t="n">
-        <v>770.1842990371767</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E23" t="n">
-        <v>384.3960464389325</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2289.351746278602</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1915.885988017522</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y23" t="n">
-        <v>1525.74665604171</v>
+        <v>994.3352828674997</v>
       </c>
     </row>
     <row r="24">
@@ -6057,7 +6059,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6069,16 +6071,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.4549451025302</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>245.4549451025302</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>76.45514484086266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2481.072881905492</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="V25" t="n">
-        <v>473.4444960005476</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="W25" t="n">
-        <v>473.4444960005476</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="X25" t="n">
-        <v>245.4549451025302</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.4549451025302</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.7171392082163</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082163</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082163</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6248,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2565.049639223743</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U26" t="n">
-        <v>2311.287853861835</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V26" t="n">
-        <v>1980.224966518264</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1627.45631124815</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.45631124815</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1237.316979272338</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961344</v>
@@ -6303,13 +6305,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6348,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="C28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="D28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="E28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="F28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
       <c r="G28" t="n">
-        <v>259.1560728187103</v>
+        <v>338.3366048012366</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>180.5882322337667</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
         <v>53.94298182036446</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>259.1560728187103</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>259.1560728187103</v>
+        <v>507.3364050629042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1392.984777118937</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>1392.984777118937</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>1392.984777118937</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E29" t="n">
-        <v>1007.196524520692</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F29" t="n">
-        <v>596.210619731085</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G29" t="n">
-        <v>178.2468116292719</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036446</v>
@@ -6467,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.72394915887</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1779.584617183059</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6540,16 +6542,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6655,13 +6657,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.745218673701</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X31" t="n">
-        <v>2243.755667775683</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y31" t="n">
         <v>2022.963088632153</v>
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.9054987607761</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6716,34 +6718,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2510.703757037383</v>
+        <v>2648.227267610355</v>
       </c>
       <c r="U32" t="n">
-        <v>2256.941971675474</v>
+        <v>2648.227267610355</v>
       </c>
       <c r="V32" t="n">
-        <v>1925.879084331904</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="W32" t="n">
-        <v>1573.11042906179</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.64467080071</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y32" t="n">
-        <v>809.505338824898</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6795,34 +6797,34 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2539.444886308983</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.136698977585</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1108.365917331524</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>739.4034003911122</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6962,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2436.098577282929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2182.33679192102</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>1851.27390457745</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W35" t="n">
-        <v>1498.505249307336</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X35" t="n">
-        <v>1498.505249307336</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1108.365917331524</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6990,73 +6992,73 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>546.4805193761947</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C37" t="n">
-        <v>377.5443364482878</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7126,19 +7128,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>493.4767912696608</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1525.74665604171</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C38" t="n">
-        <v>1156.784139101298</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>798.5184404945476</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>412.7301878963033</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>412.7301878963033</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7172,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7211,13 +7213,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.885988017521</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y38" t="n">
-        <v>1525.74665604171</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="39">
@@ -7266,16 +7268,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073964</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036445</v>
@@ -7363,19 +7365,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610024</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610024</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.5382038240418</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.175505447095</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C41" t="n">
-        <v>825.2129885066831</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>825.2129885066831</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>414.2270837170756</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7415,13 +7417,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7433,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.775345511217</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7488,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>61.28698742573985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
         <v>53.94298182036445</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750362</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>500.8207968750362</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7646,25 +7648,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
         <v>2697.149091018222</v>
@@ -7725,16 +7727,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U46" t="n">
-        <v>2567.064746875</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V46" t="n">
-        <v>2312.380258669114</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>240.6662713124298</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808119</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>399.2039605324505</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273547</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>385.2788254813443</v>
       </c>
       <c r="P6" t="n">
-        <v>142.9145225887215</v>
+        <v>133.1450665890762</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>257.9728648419855</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10914,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>138.981979599594</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22632,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.85571471361459</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>67.24550444747996</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22705,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>7.411751991652892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7738563699063</v>
+        <v>185.6110602299945</v>
       </c>
       <c r="F5" t="n">
-        <v>163.6373884726768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899251</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>73.10305082644443</v>
       </c>
       <c r="U6" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>153.551289182031</v>
+        <v>132.5602576318105</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23005,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>50.57846144115925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>226.9689958712386</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>134.8848795467417</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>213.6032485696822</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23185,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23242,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206221</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>384.9050304306758</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>191.3606360509613</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23473,13 +23475,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>22.54869530067472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>165.5366594121176</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>46.24372195542468</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>111.9799311553897</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801578</v>
@@ -23707,19 +23709,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684542</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.15757209751717</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23969,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>73.47059368733039</v>
       </c>
       <c r="U20" t="n">
-        <v>170.102160979652</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>7.012336859472725</v>
+        <v>19.81404176811733</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>79.72751176932906</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>74.01209902411637</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>133.8838474515019</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>223.2651973865004</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24461,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>85.669863081123</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>384.6420713024729</v>
       </c>
     </row>
     <row r="27">
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.175509734308</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.586823883069968</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24658,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H29" t="n">
-        <v>200.8619812535388</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24895,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>63.37316471551432</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24920,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,16 +24970,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>31.86743971662654</v>
+        <v>168.0157151838689</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>56.0183762878722</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>186.9024271435007</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>30.22198880999349</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>120.1051426060687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25366,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>53.97620323457184</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>58.5848360056155</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>51.79469286292863</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25603,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>51.79469286292863</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>57.10290914305097</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,13 +25687,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>106.7500797718391</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>139.1633970972475</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25837,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401879</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.1823542059</v>
+        <v>465488.0628680184</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>494243.3891182222</v>
+        <v>468513.85889795</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>787228.4241821774</v>
+        <v>484207.1823542057</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821775</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="14">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149544.6052781992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150588.1755146548</v>
+      </c>
+      <c r="D2" t="n">
         <v>156006.1355264978</v>
       </c>
-      <c r="C2" t="n">
-        <v>159463.6497950858</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="K2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="N2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="O2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="L2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="O2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438935</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536882</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>407720.4376835745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124988</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>102434.1176906352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33719.40849968306</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33777.16046143055</v>
+        <v>33663.59862924286</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026682</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
+        <v>35944.74664026681</v>
+      </c>
+      <c r="G4" t="n">
         <v>35944.74664026682</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35944.74664026681</v>
       </c>
       <c r="H4" t="n">
         <v>35944.74664026682</v>
@@ -26454,10 +26456,10 @@
         <v>35944.74664026681</v>
       </c>
       <c r="O4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48281.26876376167</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="D5" t="n">
         <v>50134.40740683334</v>
       </c>
-      <c r="C5" t="n">
-        <v>51181.37951678014</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26497,7 +26499,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38242.1352549681</v>
+        <v>-13155.94180136789</v>
       </c>
       <c r="C6" t="n">
-        <v>59398.42223248578</v>
+        <v>63855.64757802834</v>
       </c>
       <c r="D6" t="n">
-        <v>-275750.0978431829</v>
+        <v>49787.33266244605</v>
       </c>
       <c r="E6" t="n">
+        <v>-232659.3133730692</v>
+      </c>
+      <c r="F6" t="n">
         <v>175061.1243105054</v>
-      </c>
-      <c r="F6" t="n">
-        <v>175061.1243105053</v>
       </c>
       <c r="G6" t="n">
         <v>175061.1243105053</v>
       </c>
       <c r="H6" t="n">
-        <v>175061.1243105053</v>
+        <v>175061.1243105052</v>
       </c>
       <c r="I6" t="n">
         <v>175061.1243105053</v>
       </c>
       <c r="J6" t="n">
-        <v>106185.4255792554</v>
+        <v>112001.1817113991</v>
       </c>
       <c r="K6" t="n">
-        <v>171737.3504860301</v>
+        <v>174147.8685080481</v>
       </c>
       <c r="L6" t="n">
-        <v>74297.81237122494</v>
+        <v>170333.5611916582</v>
       </c>
       <c r="M6" t="n">
+        <v>72627.0066198701</v>
+      </c>
+      <c r="N6" t="n">
+        <v>175061.1243105052</v>
+      </c>
+      <c r="O6" t="n">
         <v>175061.1243105054</v>
-      </c>
-      <c r="N6" t="n">
-        <v>175061.1243105054</v>
-      </c>
-      <c r="O6" t="n">
-        <v>175061.1243105055</v>
       </c>
       <c r="P6" t="n">
         <v>175061.1243105054</v>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="D3" t="n">
         <v>23.01338268678938</v>
       </c>
-      <c r="C3" t="n">
-        <v>35.02126071912534</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170867</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
@@ -26817,7 +26819,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233596</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979615</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>354.7302815302973</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516667</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.045238802889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>411.0452388028891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335885</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358773</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192331</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833409</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689049</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650263</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164377</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,7 +31758,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31765,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
@@ -31871,7 +31873,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>111.0745309547117</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>23.3246024308939</v>
+        <v>0.6796463695193301</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>127.1540446485813</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338903</v>
@@ -35507,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35580,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37163,10 +37165,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37315,7 +37317,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K38" t="n">
         <v>297.223041434342</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
